--- a/score/NMLT/NMLT.xlsx
+++ b/score/NMLT/NMLT.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Python\Tiểu luận - NMLT\score\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\python\TL\TLGiang\score\NMLT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0A6F16-0146-49F8-92EA-9E3E33FF8025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" tabRatio="471" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="n01A" sheetId="1" r:id="rId1"/>
+    <sheet name="n02A" sheetId="2" r:id="rId2"/>
+    <sheet name="n03A" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">n01A!$B$1:$D$176</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,53 +29,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="180">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Tên</t>
-  </si>
-  <si>
     <t>MSSV</t>
   </si>
   <si>
     <t>Lớp</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
     <t>DH22HM01</t>
   </si>
   <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn C</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn D</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn E</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn F</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn G</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn H</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn I</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn K</t>
-  </si>
-  <si>
     <t>DH21HM01</t>
   </si>
   <si>
@@ -79,19 +50,556 @@
   </si>
   <si>
     <t>Cuối kỳ</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Trâm Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ánh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Ánh</t>
+  </si>
+  <si>
+    <t>Trần Văn Bình</t>
+  </si>
+  <si>
+    <t>Lê Thị Cẩm</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Đào</t>
+  </si>
+  <si>
+    <t>Phạm Văn Đạt</t>
+  </si>
+  <si>
+    <t>Trần Văn Đạt</t>
+  </si>
+  <si>
+    <t>Ngô Thị Điệp</t>
+  </si>
+  <si>
+    <t>Mai Văn Đức</t>
+  </si>
+  <si>
+    <t>Đặng Văn Dũng</t>
+  </si>
+  <si>
+    <t>Phạm Văn Dũng</t>
+  </si>
+  <si>
+    <t>Mai Văn Dương</t>
+  </si>
+  <si>
+    <t>Ngô Thị Duyên</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hà</t>
+  </si>
+  <si>
+    <t>Vũ Văn Hải</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hằng</t>
+  </si>
+  <si>
+    <t>Vũ Văn Hậu</t>
+  </si>
+  <si>
+    <t>Trần Văn Hiếu</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hoa</t>
+  </si>
+  <si>
+    <t>Trần Văn Hoài</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hồng</t>
+  </si>
+  <si>
+    <t>Lý Văn Hùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hương</t>
+  </si>
+  <si>
+    <t>Trần Văn Huy</t>
+  </si>
+  <si>
+    <t>Lê Thị Huyền</t>
+  </si>
+  <si>
+    <t>Phạm Văn Khanh</t>
+  </si>
+  <si>
+    <t>Đặng Văn Khôi</t>
+  </si>
+  <si>
+    <t>Ngô Thị Kiều</t>
+  </si>
+  <si>
+    <t>Mai Văn Lâm</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Lan</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Diệu Linh</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Khánh Linh</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Thuỳ Linh</t>
+  </si>
+  <si>
+    <t>Lê Thị Hồng Linh</t>
+  </si>
+  <si>
+    <t>Lê Thị Mỹ Linh</t>
+  </si>
+  <si>
+    <t>Vũ Văn Lực</t>
+  </si>
+  <si>
+    <t>Bùi Thị Ly</t>
+  </si>
+  <si>
+    <t>Trần Văn Minh</t>
+  </si>
+  <si>
+    <t>Phạm Văn Nam</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Ngân</t>
+  </si>
+  <si>
+    <t>Lý Văn Ngọc</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Yến Nhi</t>
+  </si>
+  <si>
+    <t>Trần Văn Phong</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Phương</t>
+  </si>
+  <si>
+    <t>Đặng Văn Quân</t>
+  </si>
+  <si>
+    <t>Mai Văn Quý</t>
+  </si>
+  <si>
+    <t>Ngô Thị Quỳnh</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Sen</t>
+  </si>
+  <si>
+    <t>Vũ Văn Sơn</t>
+  </si>
+  <si>
+    <t>Trần Văn Thắng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Thanh</t>
+  </si>
+  <si>
+    <t>Lê Thị Thu</t>
+  </si>
+  <si>
+    <t>Phạm Văn Thuận</t>
+  </si>
+  <si>
+    <t>Lý Văn Tiến</t>
+  </si>
+  <si>
+    <t>Ngô Thị Trang</t>
+  </si>
+  <si>
+    <t>Trần Văn Trí</t>
+  </si>
+  <si>
+    <t>Mai Văn Tuấn</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Tuyết</t>
+  </si>
+  <si>
+    <t>Vũ Văn Vũ</t>
+  </si>
+  <si>
+    <t>Bùi Thị Xuân</t>
+  </si>
+  <si>
+    <t>Trần Văn Xuân</t>
+  </si>
+  <si>
+    <t>Phạm Văn Yên</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hải Yến</t>
+  </si>
+  <si>
+    <t>Lê Thị Yến</t>
+  </si>
+  <si>
+    <t>Lý Văn Yếu</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hoài An</t>
+  </si>
+  <si>
+    <t>DH22HM02</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Mai Anh</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Phương Anh</t>
+  </si>
+  <si>
+    <t>Lê Thị Kiều Anh</t>
+  </si>
+  <si>
+    <t>Lê Thị Quỳnh Anh</t>
+  </si>
+  <si>
+    <t>Lý Văn Đức Anh</t>
+  </si>
+  <si>
+    <t>Ngô Thị Lan Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Quế Anh</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Linh Chi</t>
+  </si>
+  <si>
+    <t>Lê Thị Đào</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Điệp</t>
+  </si>
+  <si>
+    <t>Trần Văn Đức</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Dương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Giang</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Thanh Hà</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hải</t>
+  </si>
+  <si>
+    <t>Trần Văn Hào</t>
+  </si>
+  <si>
+    <t>Mai Văn Hiệp</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hùng</t>
+  </si>
+  <si>
+    <t>Vũ Văn Hùng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Huyền</t>
+  </si>
+  <si>
+    <t>Trần Văn Khánh</t>
+  </si>
+  <si>
+    <t>Lý Văn Khoa</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim</t>
+  </si>
+  <si>
+    <t>Phạm Văn Lâm</t>
+  </si>
+  <si>
+    <t>Trần Văn Lâm</t>
+  </si>
+  <si>
+    <t>Lý Văn Long</t>
+  </si>
+  <si>
+    <t>Mai Văn Long</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mai</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Tuyết Mai</t>
+  </si>
+  <si>
+    <t>Vũ Văn Minh</t>
+  </si>
+  <si>
+    <t>Bùi Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Ngô Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Trần Văn Nhân</t>
+  </si>
+  <si>
+    <t>Mai Văn Nhật</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Oanh</t>
+  </si>
+  <si>
+    <t>Phạm Văn Phát</t>
+  </si>
+  <si>
+    <t>Vũ Văn Phong</t>
+  </si>
+  <si>
+    <t>Bùi Thị Phương</t>
+  </si>
+  <si>
+    <t>Trần Văn Quân</t>
+  </si>
+  <si>
+    <t>Lý Văn Quang</t>
+  </si>
+  <si>
+    <t>Trần Văn Sáng</t>
+  </si>
+  <si>
+    <t>Ngô Thị Sen</t>
+  </si>
+  <si>
+    <t>Mai Văn Sơn</t>
+  </si>
+  <si>
+    <t>Phạm Văn Sơn</t>
+  </si>
+  <si>
+    <t>Trần Văn Tâm</t>
+  </si>
+  <si>
+    <t>Vũ Văn Thắng</t>
+  </si>
+  <si>
+    <t>Lý Văn Thành</t>
+  </si>
+  <si>
+    <t>Bùi Thị Thảo</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Thanh Thảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thảo</t>
+  </si>
+  <si>
+    <t>Trần Văn Thiên</t>
+  </si>
+  <si>
+    <t>Trần Văn Thiện</t>
+  </si>
+  <si>
+    <t>Lê Thị Thúy</t>
+  </si>
+  <si>
+    <t>Phạm Văn Tiến</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Xuân Trang</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Huyền Trang</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Trang</t>
+  </si>
+  <si>
+    <t>Lý Văn Trường</t>
+  </si>
+  <si>
+    <t>Trần Văn Minh Tuấn</t>
+  </si>
+  <si>
+    <t>Ngô Thị Uyên</t>
+  </si>
+  <si>
+    <t>Mai Văn Vượng</t>
+  </si>
+  <si>
+    <t>Vũ Văn Xuân</t>
+  </si>
+  <si>
+    <t>Lê Thị Như Ý</t>
+  </si>
+  <si>
+    <t>Bùi Thị Yến</t>
+  </si>
+  <si>
+    <t>Họ và Tên</t>
+  </si>
+  <si>
+    <t>Trần Văn Ân</t>
+  </si>
+  <si>
+    <t>Bùi Thị Quỳnh Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Bùi Thị Đan</t>
+  </si>
+  <si>
+    <t>Lý Văn Dương</t>
+  </si>
+  <si>
+    <t>Mai Văn Hòa</t>
+  </si>
+  <si>
+    <t>Trần Văn Nguyên</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Yến Nhi</t>
+  </si>
+  <si>
+    <t>Trần Văn Quốc</t>
+  </si>
+  <si>
+    <t>Vũ Văn Trí</t>
+  </si>
+  <si>
+    <t>Lê Thị Tú</t>
+  </si>
+  <si>
+    <t>Lý Văn Việt</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hoài An</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hoài An</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hải Anh</t>
+  </si>
+  <si>
+    <t>Phạm Văn Đạt Anh</t>
+  </si>
+  <si>
+    <t>Đặng Văn Đức</t>
+  </si>
+  <si>
+    <t>Lê Thị Hà</t>
+  </si>
+  <si>
+    <t>Lý Văn Hải</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hạnh</t>
+  </si>
+  <si>
+    <t>Trần Văn Hùng</t>
+  </si>
+  <si>
+    <t>Trần Văn Hưng</t>
+  </si>
+  <si>
+    <t>Lý Văn Huyền</t>
+  </si>
+  <si>
+    <t>Bùi Thị Ái</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Mai Anh</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Đào</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Đào</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Hiền</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hòa</t>
+  </si>
+  <si>
+    <t>Lý Văn Đức Minh</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Uyển Nhi</t>
+  </si>
+  <si>
+    <t>Phạm Văn Sỹ</t>
+  </si>
+  <si>
+    <t>Phạm Văn Tài</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Tiên</t>
+  </si>
+  <si>
+    <t>Trần Văn Bảo</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoài</t>
+  </si>
+  <si>
+    <t>Lê Thị Đoan Trang</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hải Yến</t>
+  </si>
+  <si>
+    <t>DH21HM02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF343541"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,8 +622,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,437 +908,3885 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2">
+        <v>21166104</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>22166101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="F2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C3">
-        <v>22166102</v>
+        <v>22166204</v>
       </c>
       <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3">
+        <v>8.6</v>
+      </c>
+      <c r="F3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>22166207</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>22166103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C5">
-        <v>22166104</v>
+        <v>22166208</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>6.8</v>
       </c>
       <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7.4</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>22166105</v>
+        <v>22166101</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>22166106</v>
+        <v>22166108</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9.1</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>22166107</v>
+        <v>22166109</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.8</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>22166108</v>
+        <v>22166110</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8.9</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>22166109</v>
+        <v>22166112</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.7</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="C11">
-        <v>22166110</v>
+        <v>21166119</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7.2</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>21166101</v>
+        <v>22166114</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>7.9</v>
       </c>
       <c r="F12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="C13">
-        <v>21166102</v>
+        <v>21166215</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="F13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.8</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="C14">
-        <v>21166103</v>
+        <v>21166219</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="F14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C15">
-        <v>21166104</v>
+        <v>22166217</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>9.4</v>
       </c>
       <c r="F15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8.1</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="C16">
-        <v>21166105</v>
+        <v>21166226</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="F16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="C17">
-        <v>21166106</v>
+        <v>21166122</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>21166107</v>
+        <v>22166119</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="F18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.3</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>21166108</v>
+        <v>21166229</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="F19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="C20">
-        <v>21166109</v>
+        <v>21166124</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>9.1</v>
       </c>
       <c r="F20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.2</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="C21">
-        <v>21166110</v>
+        <v>21166125</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>7.3</v>
       </c>
       <c r="F21">
+        <v>6.6</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>22166121</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F22">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>21166235</v>
+      </c>
+      <c r="D23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23">
+        <v>6.5</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>22166123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>7.7</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25">
+        <v>22166220</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25">
+        <v>8.4</v>
+      </c>
+      <c r="F25">
+        <v>7.9</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26">
+        <v>21166239</v>
+      </c>
+      <c r="D26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26">
+        <v>6.9</v>
+      </c>
+      <c r="F26">
+        <v>3.9</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27">
+        <v>22166221</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F27">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>22166126</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>7.1</v>
+      </c>
+      <c r="F28">
+        <v>3.8</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>22166127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F29">
         <v>7</v>
       </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>22166130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>3.7</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>22166134</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>7.4</v>
+      </c>
+      <c r="F31">
+        <v>7.1</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>22166135</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>6.1</v>
+      </c>
+      <c r="F32">
+        <v>3.6</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>22166228</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33">
+        <v>9.9</v>
+      </c>
+      <c r="F33">
+        <v>6.3</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>22166140</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>9.9</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>22166141</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F35">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36">
+        <v>22166235</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36">
+        <v>6.6</v>
+      </c>
+      <c r="F36">
+        <v>7.4</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37">
+        <v>22166238</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37">
+        <v>9.5</v>
+      </c>
+      <c r="F37">
+        <v>5.5</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>22166145</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>6.2</v>
+      </c>
+      <c r="F38">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>22166147</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F39">
+        <v>6.7</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40">
+        <v>22166148</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>6.4</v>
+      </c>
+      <c r="F40">
+        <v>4.5</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41">
+        <v>21166144</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>9.6</v>
+      </c>
+      <c r="F41">
+        <v>3.3</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42">
+        <v>22166251</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42">
+        <v>5.9</v>
+      </c>
+      <c r="F42">
+        <v>9.6</v>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43">
+        <v>22166254</v>
+      </c>
+      <c r="D43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44">
+        <v>22166154</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>5.8</v>
+      </c>
+      <c r="F44">
+        <v>5.6</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45">
+        <v>21166149</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F45">
+        <v>6.1</v>
+      </c>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46">
+        <v>22166257</v>
+      </c>
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46">
+        <v>5.7</v>
+      </c>
+      <c r="F46">
+        <v>9.5</v>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47">
+        <v>22166258</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47">
+        <v>8.5</v>
+      </c>
+      <c r="F47">
+        <v>7.2</v>
+      </c>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48">
+        <v>21166260</v>
+      </c>
+      <c r="D48" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48">
+        <v>5.6</v>
+      </c>
+      <c r="F48">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49">
+        <v>22166157</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>7.8</v>
+      </c>
+      <c r="F49">
+        <v>3.1</v>
+      </c>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50">
+        <v>21166153</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>5.5</v>
+      </c>
+      <c r="F50">
+        <v>7.7</v>
+      </c>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51">
+        <v>22166158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>6.9</v>
+      </c>
+      <c r="F51">
+        <v>9.1</v>
+      </c>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52">
+        <v>22166261</v>
+      </c>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52">
+        <v>5.4</v>
+      </c>
+      <c r="F52">
+        <v>8.6</v>
+      </c>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53">
+        <v>21166160</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>7.7</v>
+      </c>
+      <c r="F53">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54">
+        <v>22166161</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>5.3</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55">
+        <v>22166264</v>
+      </c>
+      <c r="D55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F55">
+        <v>7.4</v>
+      </c>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56">
+        <v>22166265</v>
+      </c>
+      <c r="D56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56">
+        <v>5.2</v>
+      </c>
+      <c r="F56">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57">
+        <v>22166266</v>
+      </c>
+      <c r="D57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57">
+        <v>9.6</v>
+      </c>
+      <c r="F57">
+        <v>9.1</v>
+      </c>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58">
+        <v>21166265</v>
+      </c>
+      <c r="D58" t="s">
+        <v>179</v>
+      </c>
+      <c r="E58">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F58">
+        <v>4.8</v>
+      </c>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="9:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="I113" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D58">
+    <sortCondition ref="B2:B58"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>22166201</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3">
+        <v>21166205</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3">
+        <v>3.7</v>
+      </c>
+      <c r="F3">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>22166203</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4">
+        <v>7.1</v>
+      </c>
+      <c r="F4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>22166205</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <v>3.6</v>
+      </c>
+      <c r="F5">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6">
+        <v>22166206</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>8.4</v>
+      </c>
+      <c r="F6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7">
+        <v>21166206</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7">
+        <v>3.5</v>
+      </c>
+      <c r="F7">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>22166102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>7.3</v>
+      </c>
+      <c r="F8">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>22166104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3.4</v>
+      </c>
+      <c r="F9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10">
+        <v>21166116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>7.5</v>
+      </c>
+      <c r="F10">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11">
+        <v>21166117</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>3.3</v>
+      </c>
+      <c r="F11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>22166106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>6.2</v>
+      </c>
+      <c r="F12">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>22166211</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13">
+        <v>3.2</v>
+      </c>
+      <c r="F13">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <v>22166213</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>6.5</v>
+      </c>
+      <c r="F14">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>22166111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3.1</v>
+      </c>
+      <c r="F15">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16">
+        <v>22166216</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16">
+        <v>6.7</v>
+      </c>
+      <c r="F16">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>22166116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>22166117</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>7.6</v>
+      </c>
+      <c r="F18">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>22166218</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F19">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20">
+        <v>22166219</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20">
+        <v>6.1</v>
+      </c>
+      <c r="F20">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>22166120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>5.9</v>
+      </c>
+      <c r="F21">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22">
+        <v>21166244</v>
+      </c>
+      <c r="D22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22">
+        <v>5.4</v>
+      </c>
+      <c r="F22">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>22166125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F23">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24">
+        <v>21166252</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F24">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>22166128</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3.9</v>
+      </c>
+      <c r="F25">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26">
+        <v>22166227</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26">
+        <v>3.4</v>
+      </c>
+      <c r="F26">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>22166131</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>7.5</v>
+      </c>
+      <c r="F27">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28">
+        <v>22166229</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28">
+        <v>7.9</v>
+      </c>
+      <c r="F28">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>22166138</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F29">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30">
+        <v>22166230</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30">
+        <v>6.1</v>
+      </c>
+      <c r="F30">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31">
+        <v>22166231</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F31">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32">
+        <v>21166133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F32">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>22166139</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F33">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34">
+        <v>22166232</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34">
+        <v>8.9</v>
+      </c>
+      <c r="F34">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35">
+        <v>22166233</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F35">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>22166142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>22166143</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>6.2</v>
+      </c>
+      <c r="F37">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38">
+        <v>22166237</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38">
+        <v>6.8</v>
+      </c>
+      <c r="F38">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39">
+        <v>22166239</v>
+      </c>
+      <c r="D39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39">
+        <v>9.4</v>
+      </c>
+      <c r="F39">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40">
+        <v>22166242</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40">
+        <v>8.4</v>
+      </c>
+      <c r="F40">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41">
+        <v>21166142</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F41">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42">
+        <v>22166243</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F42">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>22166149</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>6.6</v>
+      </c>
+      <c r="F43">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44">
+        <v>22166245</v>
+      </c>
+      <c r="D44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44">
+        <v>5.7</v>
+      </c>
+      <c r="F44">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45">
+        <v>22166150</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>5.2</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46">
+        <v>22166152</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>4.7</v>
+      </c>
+      <c r="F46">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47">
+        <v>22166249</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47">
+        <v>4.2</v>
+      </c>
+      <c r="F47">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48">
+        <v>22166250</v>
+      </c>
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48">
+        <v>3.7</v>
+      </c>
+      <c r="F48">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49">
+        <v>22166153</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>3.2</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50">
+        <v>22166255</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50">
+        <v>7.8</v>
+      </c>
+      <c r="F50">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51">
+        <v>22166155</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>6.7</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <v>22166159</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>6.9</v>
+      </c>
+      <c r="F52">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53">
+        <v>22166160</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>6.6</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54">
+        <v>22166263</v>
+      </c>
+      <c r="D54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54">
+        <v>5.7</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55">
+        <v>22166162</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>9.5</v>
+      </c>
+      <c r="F55">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>22166163</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>8.5</v>
+      </c>
+      <c r="F56">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57">
+        <v>21166263</v>
+      </c>
+      <c r="D57" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57">
+        <v>9.6</v>
+      </c>
+      <c r="F57">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58">
+        <v>22166165</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>7.2</v>
+      </c>
+      <c r="F58">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59">
+        <v>22166166</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>6.6</v>
+      </c>
+      <c r="F59">
+        <v>6.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F59">
+    <sortCondition ref="B2:B59"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2">
+        <v>21166101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>3.7</v>
+      </c>
+      <c r="F2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3">
+        <v>21166201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3">
+        <v>3.2</v>
+      </c>
+      <c r="F3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4">
+        <v>21166202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4">
+        <v>7.8</v>
+      </c>
+      <c r="F4">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5">
+        <v>21166103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>6.7</v>
+      </c>
+      <c r="F5">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>22166202</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>6.9</v>
+      </c>
+      <c r="F6">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7">
+        <v>21166107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>7.2</v>
+      </c>
+      <c r="F7">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8">
+        <v>21166109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>6.5</v>
+      </c>
+      <c r="F8">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>22166103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>8.1</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10">
+        <v>21166209</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F10">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>22166105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F11">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12">
+        <v>22166209</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12">
+        <v>9.5</v>
+      </c>
+      <c r="F12">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13">
+        <v>21166112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>8.5</v>
+      </c>
+      <c r="F13">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14">
+        <v>22166210</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F14">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>22166107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>7.8</v>
+      </c>
+      <c r="F15">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16">
+        <v>22166212</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F16">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17">
+        <v>21166211</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17">
+        <v>6.8</v>
+      </c>
+      <c r="F17">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18">
+        <v>22166214</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>22166113</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>8.4</v>
+      </c>
+      <c r="F19">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20">
+        <v>22166215</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20">
+        <v>6.7</v>
+      </c>
+      <c r="F20">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>22166115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>6.3</v>
+      </c>
+      <c r="F21">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22">
+        <v>21166217</v>
+      </c>
+      <c r="D22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22">
+        <v>8.9</v>
+      </c>
+      <c r="F22">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>22166118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F23">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24">
+        <v>21166230</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F24">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>21166232</v>
+      </c>
+      <c r="D25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25">
+        <v>7.8</v>
+      </c>
+      <c r="F25">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>22166122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>9.9</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>22166124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28">
+        <v>22166222</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F28">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29">
+        <v>22166223</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29">
+        <v>6.6</v>
+      </c>
+      <c r="F29">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30">
+        <v>22166224</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30">
+        <v>9.5</v>
+      </c>
+      <c r="F30">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>22166129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>6.2</v>
+      </c>
+      <c r="F31">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32">
+        <v>22166225</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F32">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33">
+        <v>22166226</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33">
+        <v>6.4</v>
+      </c>
+      <c r="F33">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>22166132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>9.6</v>
+      </c>
+      <c r="F34">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>22166133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>6.8</v>
+      </c>
+      <c r="F35">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>22166136</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>9.4</v>
+      </c>
+      <c r="F36">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>22166137</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>8.4</v>
+      </c>
+      <c r="F37">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38">
+        <v>22166234</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F38">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39">
+        <v>21166135</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F39">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40">
+        <v>22166236</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F40">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41">
+        <v>21166137</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>8.9</v>
+      </c>
+      <c r="F41">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42">
+        <v>21166139</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F42">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>22166144</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44">
+        <v>22166240</v>
+      </c>
+      <c r="D44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44">
+        <v>6.2</v>
+      </c>
+      <c r="F44">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45">
+        <v>22166146</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>6.8</v>
+      </c>
+      <c r="F45">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46">
+        <v>22166241</v>
+      </c>
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46">
+        <v>9.4</v>
+      </c>
+      <c r="F46">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47">
+        <v>22166244</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47">
+        <v>8.4</v>
+      </c>
+      <c r="F47">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48">
+        <v>22166246</v>
+      </c>
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F48">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49">
+        <v>21166145</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F49">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50">
+        <v>22166247</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F50">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>22166151</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>8.9</v>
+      </c>
+      <c r="F51">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52">
+        <v>22166248</v>
+      </c>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F52">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53">
+        <v>22166252</v>
+      </c>
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54">
+        <v>22166253</v>
+      </c>
+      <c r="D54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54">
+        <v>6.2</v>
+      </c>
+      <c r="F54">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55">
+        <v>22166256</v>
+      </c>
+      <c r="D55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56">
+        <v>22166259</v>
+      </c>
+      <c r="D56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56">
+        <v>6.4</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>22166156</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>5.5</v>
+      </c>
+      <c r="F57">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58">
+        <v>22166260</v>
+      </c>
+      <c r="D58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59">
+        <v>21166154</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>4.5</v>
+      </c>
+      <c r="F59">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60">
+        <v>22166262</v>
+      </c>
+      <c r="D60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61">
+        <v>22166164</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>3.5</v>
+      </c>
+      <c r="F61">
+        <v>7.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F69">
+    <sortCondition ref="B2:B69"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>